--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bblack\switchdrive\Private\git_laptop\curriculum-vitae\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeza\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D54006F-3615-4518-A397-67407188B741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE737CE6-130B-4877-BAE6-54A6680329F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="skills" sheetId="2" r:id="rId4"/>
     <sheet name="education" sheetId="3" r:id="rId5"/>
     <sheet name="experience" sheetId="4" r:id="rId6"/>
-    <sheet name="workshop" sheetId="5" r:id="rId7"/>
-    <sheet name="packages" sheetId="6" r:id="rId8"/>
-    <sheet name="awards" sheetId="7" r:id="rId9"/>
-    <sheet name="oral" sheetId="8" r:id="rId10"/>
-    <sheet name="poster" sheetId="9" r:id="rId11"/>
+    <sheet name="certificates" sheetId="12" r:id="rId7"/>
+    <sheet name="workshop" sheetId="5" r:id="rId8"/>
+    <sheet name="packages" sheetId="6" r:id="rId9"/>
+    <sheet name="awards" sheetId="7" r:id="rId10"/>
+    <sheet name="oral" sheetId="8" r:id="rId11"/>
+    <sheet name="poster" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">poster!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">poster!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="188">
   <si>
     <t>position</t>
   </si>
@@ -108,9 +109,6 @@
   </si>
   <si>
     <t>activities</t>
-  </si>
-  <si>
-    <t>Present</t>
   </si>
   <si>
     <t>title</t>
@@ -299,9 +297,6 @@
     <t>rgroup</t>
   </si>
   <si>
-    <t>Oct. 2020</t>
-  </si>
-  <si>
     <t>insane</t>
   </si>
   <si>
@@ -323,333 +318,304 @@
     <t>mastodon</t>
   </si>
   <si>
-    <t>Doctoral researcher</t>
-  </si>
-  <si>
     <t>Zurich, Switzerland</t>
   </si>
   <si>
-    <t>bblack@ethz.ch</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/</t>
-  </si>
-  <si>
-    <t>0000-0002-8113-2114</t>
-  </si>
-  <si>
-    <t>ben-black-9889a1150</t>
-  </si>
-  <si>
-    <t>blenback</t>
-  </si>
-  <si>
-    <t>Blen_Back</t>
-  </si>
-  <si>
-    <t>Netica</t>
-  </si>
-  <si>
-    <t>ArcGIS</t>
-  </si>
-  <si>
-    <t>QGIS</t>
-  </si>
-  <si>
-    <t>R (Shiny, Quarto)</t>
-  </si>
-  <si>
     <t>researchgate</t>
   </si>
   <si>
-    <t>https://www.researchgate.net/profile/Benjamin-Black-5</t>
-  </si>
-  <si>
-    <t>[ETH Planning of Landscape and Urban systems](https://plus.ethz.ch/)</t>
-  </si>
-  <si>
-    <t>MSc in Environmental Sciences, Policy and Management (MESPOM)</t>
-  </si>
-  <si>
-    <t>Central
+    <t>Swiss Re Foundation</t>
+  </si>
+  <si>
+    <t>Zürich, Switzerland</t>
+  </si>
+  <si>
+    <t>Jun. 2023</t>
+  </si>
+  <si>
+    <t>NAture-positive SCenarios for ENvironmental Transitions: Peru (NASCENT-PERU)</t>
+  </si>
+  <si>
+    <t>*Funded project under the SwissRE Biodiversity and Ecosystem Services Scenarios Modelling Initiative*</t>
+  </si>
+  <si>
+    <t>Reproducible Research with R and Quarto: Workflows for data, projects and publications</t>
+  </si>
+  <si>
+    <t>Three hour workshop as part of Landscape 2024 conference</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Sep. 2024</t>
+  </si>
+  <si>
+    <t>awards</t>
+  </si>
+  <si>
+    <t>Ex-ante identification of policy interventions to secure a functioning ecological infrastructure: A participatory Bayesian Network approach in Switzerland</t>
+  </si>
+  <si>
+    <t>3rd Ecosystem Services Partnership Europe Regional conference</t>
+  </si>
+  <si>
+    <t>Tartu, Estonia</t>
+  </si>
+  <si>
+    <t>Jun. 2019</t>
+  </si>
+  <si>
+    <t>https://blenback.github.io/presentations/2021_06_09_ESP/</t>
+  </si>
+  <si>
+    <t>https://github.com/blenback/R-for-Reproducible-Research/</t>
+  </si>
+  <si>
+    <t>https://plus.ethz.ch/research/forschungsprojekte/NASCENT-PERU.html/</t>
+  </si>
+  <si>
+    <t>link_type</t>
+  </si>
+  <si>
+    <t>Combining filter and embedded approaches to improve variable selection in land use change Cellular Automata models</t>
+  </si>
+  <si>
+    <t>11th International Environmental Modelling and Software Society conference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Brussels, Belgium</t>
+  </si>
+  <si>
+    <t>Jul. 2022</t>
+  </si>
+  <si>
+    <t>https://blenback.github.io/presentations/2022_07_01_IEMSs_model_pres/</t>
+  </si>
+  <si>
+    <t>https://blenback.github.io/presentations/2022_07_01_IEMSs_ValParCH_pres/</t>
+  </si>
+  <si>
+    <t>Characterising non-stationarity in predictive models of land use in Swiss mountain parks to inform scenarios for deliberative transformation</t>
+  </si>
+  <si>
+    <t>ValPar.CH: Integrating land use change, Ecosystem Service and Biodiversity modelling to simulate pathways for a functioning Ecological Infrastructure for Switzerland</t>
+  </si>
+  <si>
+    <t>International Mountain conference 2022</t>
+  </si>
+  <si>
+    <t>Innsbruck, Austria</t>
+  </si>
+  <si>
+    <t>Sep. 2022</t>
+  </si>
+  <si>
+    <t>https://blenback.github.io/presentations/2022_09_13_IMC/</t>
+  </si>
+  <si>
+    <t>Broadening the scope of future visions for nature positive futures in Peru</t>
+  </si>
+  <si>
+    <t>Swiss Re Institute Resilience Summit 2023</t>
+  </si>
+  <si>
+    <t>Nov. 2023</t>
+  </si>
+  <si>
+    <t>https://blenback.github.io/presentations/2023_11_30_SwissRE/</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Conversational</t>
+  </si>
+  <si>
+    <t>Negotiating scenarios of a desirable ecological infrastructure for Switzerland</t>
+  </si>
+  <si>
+    <t>4th Swiss Landscape Congress</t>
+  </si>
+  <si>
+    <t>Tramelan, Switzerland</t>
+  </si>
+  <si>
+    <t>https://blenback.github.io/presentations/2024_5_9_Landschaft/</t>
+  </si>
+  <si>
+    <t>Normative scenarios of landscape change for Nature-Positive futures in Peru</t>
+  </si>
+  <si>
+    <t>World Biodiversity Forum</t>
+  </si>
+  <si>
+    <t>Davos, Switzerland</t>
+  </si>
+  <si>
+    <t>Jun. 2024</t>
+  </si>
+  <si>
+    <t>https://blenback.github.io/presentations/2024_20_6_WBF/</t>
+  </si>
+  <si>
+    <t>Mexico City, Mexico</t>
+  </si>
+  <si>
+    <t>Renewable Energy Engineer</t>
+  </si>
+  <si>
+    <t>hdezagjr@gmail.com</t>
+  </si>
+  <si>
+    <t>JRamonHA</t>
+  </si>
+  <si>
+    <t>jrhaguilar</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>Shiny, Quarto</t>
+  </si>
+  <si>
+    <t>shell/bash</t>
+  </si>
+  <si>
+    <t>Docker</t>
+  </si>
+  <si>
+    <t>Office (Excel, Word &amp; PowerPoint)</t>
+  </si>
+  <si>
+    <t>C/C++</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>Learned about Python installation and syntax using Jupyter Notebook. Explored the ETL and EDA methodologies using Pandas and Matplotlib for data handling, specifically time series. Applied advanced strategies for data management and the development of reproducible and collaborative projects in data handling and visualization.</t>
+  </si>
+  <si>
+    <t>Python: de cero a analista de datos</t>
+  </si>
+  <si>
+    <t>Python for Data Science, AI &amp; Development</t>
+  </si>
+  <si>
+    <t>Python Project for Data Science</t>
+  </si>
+  <si>
+    <t>Getting Started with Git and GitHub</t>
+  </si>
+  <si>
+    <t>Jul. 2024</t>
+  </si>
+  <si>
+    <t>Dec. 2024</t>
+  </si>
+  <si>
+    <t>Aug. 2024</t>
+  </si>
+  <si>
+    <t>Gained foundational knowledge of version control in collaborative coding and DevOps. Developed skills in using Git for distributed version control, managing repositories and branches, performing pull requests and merge operations on GitHub.</t>
+  </si>
+  <si>
+    <t>Demonstrated foundational Python skills for data analysis through a real-world project. Applied data science techniques to identify patterns and trends in a given dataset.</t>
+  </si>
+  <si>
+    <t>UNAM</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Proficiency in Python programming, including core concepts like variables, data structures, control flow, functions, object-oriented programming, and libraries like Pandas and NumPy. Obtained the ability to develop and execute Python code using Jupyter Notebooks. Gained experience in accessing and extracting data from web sources using APIs and libraries like Beautiful Soup.</t>
+  </si>
+  <si>
+    <t>[UNAM](https://www.unam.mx/)</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>I am a recent graduate in Renewable Energy Engineering, I consider myself as an attentive, prudent, and meticulous person who contributes to a positive and collaborative work environment, providing my technical competence and expertise. My thoroughness ensures high-quality results.</t>
+  </si>
+  <si>
+    <t>Sep. 2020</t>
+  </si>
+  <si>
+    <t>Ago. 2024</t>
+  </si>
+  <si>
+    <t>Renewable Energy Engineering</t>
+  </si>
+  <si>
+    <t>Business Administration Studies</t>
+  </si>
+  <si>
+    <t>Roskilde Universitet
 European University, University of Manchester, Lund University, University of
 the Aegean</t>
   </si>
   <si>
-    <t>BSc with 1st Class Honours in Biological Sciences</t>
-  </si>
-  <si>
-    <t>ETH Zürich</t>
-  </si>
-  <si>
-    <t>Edinburgh Napier University</t>
-  </si>
-  <si>
-    <t>Edinburgh, Scotland</t>
-  </si>
-  <si>
-    <t>Sep. 2010</t>
-  </si>
-  <si>
-    <t>Jun. 2014</t>
-  </si>
-  <si>
-    <t>Sep. 2018</t>
-  </si>
-  <si>
-    <t>Jun. 2020</t>
-  </si>
-  <si>
-    <t>Doctor of Civil Engineering</t>
-  </si>
-  <si>
-    <t>Swiss Re Foundation</t>
-  </si>
-  <si>
-    <t>Zürich, Switzerland</t>
-  </si>
-  <si>
-    <t>Jun. 2023</t>
-  </si>
-  <si>
-    <t>NAture-positive SCenarios for ENvironmental Transitions: Peru (NASCENT-PERU)</t>
-  </si>
-  <si>
-    <t>*Funded project under the SwissRE Biodiversity and Ecosystem Services Scenarios Modelling Initiative*</t>
-  </si>
-  <si>
-    <t>Hungary, Greece, UK</t>
-  </si>
-  <si>
-    <t>Biodiversity and SMART Intern</t>
-  </si>
-  <si>
-    <t>Phnom Penh, Cambodia</t>
-  </si>
-  <si>
-    <t>Jul. 2019</t>
-  </si>
-  <si>
-    <t>Aug. 2019</t>
-  </si>
-  <si>
-    <t>The Wildlife Conservation Society (WCS)</t>
-  </si>
-  <si>
-    <t>Student Affairs Manager</t>
-  </si>
-  <si>
-    <t>The School for Field Studies Center for Conservation and Development Studies
-in the Lower Mekong</t>
-  </si>
-  <si>
-    <t>Siem Reap, Cambodia</t>
-  </si>
-  <si>
-    <t>Jan. 2018</t>
-  </si>
-  <si>
-    <t>Aug. 2018</t>
-  </si>
-  <si>
-    <t>Project Manager &amp; Volunteer Co-ordinator</t>
-  </si>
-  <si>
-    <t>Elephant Livelihood Initiatives and Environment (E.L.I.E)</t>
-  </si>
-  <si>
-    <t>Mondulkiri, Cambodia</t>
-  </si>
-  <si>
-    <t>April. 2015</t>
-  </si>
-  <si>
-    <t>June. 2017</t>
-  </si>
-  <si>
-    <t>Reproducible Research with R and Quarto: Workflows for data, projects and publications</t>
-  </si>
-  <si>
-    <t>Three hour workshop as part of Landscape 2024 conference</t>
-  </si>
-  <si>
-    <t>Berlin, Germany</t>
-  </si>
-  <si>
-    <t>Sep. 2024</t>
-  </si>
-  <si>
-    <t>Independent Consultant Srae Y Community ecotourism project</t>
-  </si>
-  <si>
-    <t>World Wide Fund for Nature (WWF)</t>
-  </si>
-  <si>
-    <t>Dec. 2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undertook site visits to assess the status of the project and prepared a report, detailing strategies to make the project operational and sustainable. Planned and delivered a series of training sessions to project staff and stakeholders from other communities engaged in ecotourism. </t>
-  </si>
-  <si>
-    <t>Volunteer Development Officer &amp; Conservation Support Assistant</t>
-  </si>
-  <si>
-    <t>Central Scotland</t>
-  </si>
-  <si>
-    <t>Apr. 2015</t>
-  </si>
-  <si>
-    <t>May 2013</t>
-  </si>
-  <si>
-    <t>The Conservation Volunteers (TCV)</t>
-  </si>
-  <si>
-    <t>Produced protected area species inventories in line with Darwin Core standards utilising OpenRefine, R scripting and API services to expedite the collection of external data from the IUCN, EDGE ranking and CITES. Assisted in the training of new community biodiversity rangers in the process of SMART data collection in the field.</t>
-  </si>
-  <si>
-    <t>Coordinated safety and risk management as well as logistics for all centre activities including multi day field trips to remote locations in Cambodia and Vietnam. Medical ‘point person’, facilitated first aid training for staff. Performed pastoral role: ensuring student well-being, resolving group management issues and facilitating cultural adaptation.</t>
-  </si>
-  <si>
-    <t>Managed a diverse team (Bunong Indigenous minority, and Khmer) of 48 staff. Oversaw the operation of an ecotourism project receiving 4000+ visitors a year. Facilitated ongoing capacity building of staff and development of the volunteer program. 
-Compiled budgets, handled cash flow to staff and submitted detailed financial reports. Produced reports for the board of directors and Cambodian government. Developed relationships with other environmental and conservation organisations in the region.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Planned, developed and delivered the Ochils Landscape Partnerships volunteering program and two TCV community health projects. Engaged with, and ensured the safety and wellbeing of a diverse cross section of volunteers, many with physical or mental disabilities as well as young adults/children.</t>
-  </si>
-  <si>
-    <t>awards</t>
-  </si>
-  <si>
-    <t>University medal (highest average mark on degree route); Lawrence Ho student prize; Dennis Aw award.</t>
-  </si>
-  <si>
-    <t>Outstanding academic achievement (highest GPA in cohort: 4.00/4.00)</t>
-  </si>
-  <si>
-    <t>Ex-ante identification of policy interventions to secure a functioning ecological infrastructure: A participatory Bayesian Network approach in Switzerland</t>
-  </si>
-  <si>
-    <t>3rd Ecosystem Services Partnership Europe Regional conference</t>
-  </si>
-  <si>
-    <t>Tartu, Estonia</t>
-  </si>
-  <si>
-    <t>Jun. 2019</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2021_06_09_ESP/</t>
-  </si>
-  <si>
-    <t>https://github.com/blenback/R-for-Reproducible-Research/</t>
-  </si>
-  <si>
-    <t>https://plus.ethz.ch/research/forschungsprojekte/NASCENT-PERU.html/</t>
-  </si>
-  <si>
-    <t>link_type</t>
-  </si>
-  <si>
-    <t>Combining filter and embedded approaches to improve variable selection in land use change Cellular Automata models</t>
-  </si>
-  <si>
-    <t>11th International Environmental Modelling and Software Society conference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Brussels, Belgium</t>
-  </si>
-  <si>
-    <t>Jul. 2022</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2022_07_01_IEMSs_model_pres/</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2022_07_01_IEMSs_ValParCH_pres/</t>
-  </si>
-  <si>
-    <t>Characterising non-stationarity in predictive models of land use in Swiss mountain parks to inform scenarios for deliberative transformation</t>
-  </si>
-  <si>
-    <t>ValPar.CH: Integrating land use change, Ecosystem Service and Biodiversity modelling to simulate pathways for a functioning Ecological Infrastructure for Switzerland</t>
-  </si>
-  <si>
-    <t>International Mountain conference 2022</t>
-  </si>
-  <si>
-    <t>Innsbruck, Austria</t>
-  </si>
-  <si>
-    <t>Sep. 2022</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2022_09_13_IMC/</t>
-  </si>
-  <si>
-    <t>Broadening the scope of future visions for nature positive futures in Peru</t>
-  </si>
-  <si>
-    <t>Swiss Re Institute Resilience Summit 2023</t>
-  </si>
-  <si>
-    <t>Nov. 2023</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2023_11_30_SwissRE/</t>
-  </si>
-  <si>
-    <t>Dinamica EGO</t>
-  </si>
-  <si>
-    <t>Native</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Conversational</t>
-  </si>
-  <si>
-    <t>Khmer</t>
-  </si>
-  <si>
-    <t>I am a PhD student currently working within the [**ValPar.CH**](https://valpar.ch/index_de.php) and [**NASCENT-Peru**](https://nascent-peru.github.io/) projects as part of the research group Planning of Landscape Urban Systems (PLUS) at ETH Zürich.</t>
-  </si>
-  <si>
-    <t>Negotiating scenarios of a desirable ecological infrastructure for Switzerland</t>
-  </si>
-  <si>
-    <t>4th Swiss Landscape Congress</t>
-  </si>
-  <si>
-    <t>Tramelan, Switzerland</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2024_5_9_Landschaft/</t>
-  </si>
-  <si>
-    <t>Normative scenarios of landscape change for Nature-Positive futures in Peru</t>
-  </si>
-  <si>
-    <t>World Biodiversity Forum</t>
-  </si>
-  <si>
-    <t>Davos, Switzerland</t>
-  </si>
-  <si>
-    <t>Jun. 2024</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2024_20_6_WBF/</t>
+    <t>Roskilde, Denmark</t>
+  </si>
+  <si>
+    <t>Sep. 2023</t>
+  </si>
+  <si>
+    <t>Jan. 2024</t>
+  </si>
+  <si>
+    <t>Universidad Nacional Autonoma de Mexico</t>
+  </si>
+  <si>
+    <t>Temixco, Morelos</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Corporativo IQ160</t>
+  </si>
+  <si>
+    <t>Panelist</t>
+  </si>
+  <si>
+    <t>Coatzacoalcos, Mexico</t>
+  </si>
+  <si>
+    <t>Temixco, Mexico</t>
+  </si>
+  <si>
+    <t>Aug. 2021</t>
+  </si>
+  <si>
+    <t>Sep. 2021</t>
+  </si>
+  <si>
+    <t>Mar. 2022</t>
+  </si>
+  <si>
+    <t>Apr. 2022</t>
+  </si>
+  <si>
+    <t>Specialized in instructional design and occupational health and safety, with expertise in applying Official Mexican Standards (NOM-017, NOM-026, NOM-002, NOM-009, NOM-019) to develop effective training courses for the Distance Training Program for Workers (PROCADIST) of the Ministry of Labor and Social Welfare (STPS), contributing to worker skill development, training, and accreditation to prevent occupational risks.</t>
+  </si>
+  <si>
+    <t>Led academic guidance for high school students and promoted the Bachelor's Degree in Renewable Energy Engineering (LIER), achieving an increase in student admissions per generation from 9 to 16 compared to previous cohorts.</t>
   </si>
 </sst>
 </file>
@@ -700,7 +666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -710,9 +676,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -994,25 +969,25 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,10 +1004,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1044,210 +1019,271 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
         <v>90</v>
       </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E2">
+        <v>7777162890</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E61BAC2C-CE77-4EEF-95D1-2C82C8721EA2}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{780E172D-0BAA-4FF1-B85D-DFB522C9DE28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="99.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{A344B0D7-2544-4885-B67B-FC3F61A73CFD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>112</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>196</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1273,83 +1309,83 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1362,47 +1398,47 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="67.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1411,43 +1447,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1463,12 +1499,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1476,28 +1512,28 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1510,16 +1546,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1527,76 +1563,76 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1606,19 +1642,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.28515625" customWidth="1"/>
-    <col min="7" max="7" width="142.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.33203125" customWidth="1"/>
+    <col min="7" max="7" width="142.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1638,64 +1674,41 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
+        <v>170</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>169</v>
+      </c>
+      <c r="B3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1705,23 +1718,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1741,104 +1754,44 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>179</v>
+      </c>
+      <c r="B2" t="s">
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1848,6 +1801,125 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="57.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1855,47 +1927,47 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +1978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1914,250 +1986,180 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
         <v>71</v>
       </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
         <v>75</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s">
-        <v>76</v>
-      </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{A344B0D7-2544-4885-B67B-FC3F61A73CFD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeza\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE737CE6-130B-4877-BAE6-54A6680329F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE98ECC4-52D6-4ECE-9D7E-C6262EA2DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -565,11 +565,6 @@
     <t>Business Administration Studies</t>
   </si>
   <si>
-    <t>Roskilde Universitet
-European University, University of Manchester, Lund University, University of
-the Aegean</t>
-  </si>
-  <si>
     <t>Roskilde, Denmark</t>
   </si>
   <si>
@@ -616,6 +611,9 @@
   </si>
   <si>
     <t>Led academic guidance for high school students and promoted the Bachelor's Degree in Renewable Energy Engineering (LIER), achieving an increase in student admissions per generation from 9 to 16 compared to previous cohorts.</t>
+  </si>
+  <si>
+    <t>Roskilde Universitet</t>
   </si>
 </sst>
 </file>
@@ -1644,8 +1642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,16 +1680,16 @@
         <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>173</v>
-      </c>
-      <c r="E2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1699,10 +1697,10 @@
         <v>169</v>
       </c>
       <c r="B3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" t="s">
         <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>176</v>
       </c>
       <c r="D3" t="s">
         <v>167</v>
@@ -1720,7 +1718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
@@ -1756,42 +1754,42 @@
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" t="s">
         <v>184</v>
       </c>
-      <c r="E2" t="s">
-        <v>185</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" t="s">
         <v>177</v>
       </c>
-      <c r="B3" t="s">
-        <v>178</v>
-      </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
         <v>182</v>
       </c>
-      <c r="E3" t="s">
-        <v>183</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeza\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE98ECC4-52D6-4ECE-9D7E-C6262EA2DAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC333D9-84B3-467C-832E-B7FC0DA6D82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,6 @@
     <t>course</t>
   </si>
   <si>
-    <t>Learned about Python installation and syntax using Jupyter Notebook. Explored the ETL and EDA methodologies using Pandas and Matplotlib for data handling, specifically time series. Applied advanced strategies for data management and the development of reproducible and collaborative projects in data handling and visualization.</t>
-  </si>
-  <si>
     <t>Python: de cero a analista de datos</t>
   </si>
   <si>
@@ -529,9 +526,6 @@
     <t>Aug. 2024</t>
   </si>
   <si>
-    <t>Gained foundational knowledge of version control in collaborative coding and DevOps. Developed skills in using Git for distributed version control, managing repositories and branches, performing pull requests and merge operations on GitHub.</t>
-  </si>
-  <si>
     <t>Demonstrated foundational Python skills for data analysis through a real-world project. Applied data science techniques to identify patterns and trends in a given dataset.</t>
   </si>
   <si>
@@ -541,18 +535,12 @@
     <t>IBM</t>
   </si>
   <si>
-    <t>Proficiency in Python programming, including core concepts like variables, data structures, control flow, functions, object-oriented programming, and libraries like Pandas and NumPy. Obtained the ability to develop and execute Python code using Jupyter Notebooks. Gained experience in accessing and extracting data from web sources using APIs and libraries like Beautiful Soup.</t>
-  </si>
-  <si>
     <t>[UNAM](https://www.unam.mx/)</t>
   </si>
   <si>
     <t>Online</t>
   </si>
   <si>
-    <t>I am a recent graduate in Renewable Energy Engineering, I consider myself as an attentive, prudent, and meticulous person who contributes to a positive and collaborative work environment, providing my technical competence and expertise. My thoroughness ensures high-quality results.</t>
-  </si>
-  <si>
     <t>Sep. 2020</t>
   </si>
   <si>
@@ -614,6 +602,18 @@
   </si>
   <si>
     <t>Roskilde Universitet</t>
+  </si>
+  <si>
+    <t>Gained foundational knowledge of version control in collaborative coding and DevOps. Developed skills in using Git for distributed version control, managing repositories and branches on GitHub.</t>
+  </si>
+  <si>
+    <t>Learned about Python installation and syntax using Jupyter Notebook. Explored the ETL and EDA methodologies using Pandas and Matplotlib for data handling. Applied advanced strategies for data management and the development of reproducible projects in data handling and visualization.</t>
+  </si>
+  <si>
+    <t>Mastered core Python concepts like variables, functions, object-oriented programming, utilized libraries like Pandas and NumPy, worked with Jupyter Notebooks, and gained experience in web data extraction using APIs and Beautiful Soup.</t>
+  </si>
+  <si>
+    <t>Recent graduate in Renewable Energy Engineering, I am an attentive, prudent, and meticulous person who contributes to a positive and collaborative work environment. My thoroughness ensures high-quality results.</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1031,7 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>137</v>
@@ -1395,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1420,7 +1420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1642,7 +1642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1677,36 +1677,36 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1754,42 +1754,42 @@
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
         <v>180</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E2" t="s">
-        <v>184</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1803,12 +1803,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="23.109375" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="3" width="23.109375" customWidth="1"/>
     <col min="6" max="6" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1834,33 +1835,33 @@
     </row>
     <row r="2" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>99</v>
@@ -1869,47 +1870,47 @@
         <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>165</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeza\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC333D9-84B3-467C-832E-B7FC0DA6D82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F811E09-7C1F-4CD6-A652-4C94882D187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="187">
   <si>
     <t>position</t>
   </si>
@@ -563,9 +563,6 @@
   </si>
   <si>
     <t>Universidad Nacional Autonoma de Mexico</t>
-  </si>
-  <si>
-    <t>Temixco, Morelos</t>
   </si>
   <si>
     <t>Assistant</t>
@@ -1395,7 +1392,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1428,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1642,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1680,7 +1677,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>167</v>
@@ -1700,7 +1697,7 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -1754,42 +1751,42 @@
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" t="s">
         <v>179</v>
       </c>
-      <c r="E2" t="s">
-        <v>180</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" t="s">
         <v>172</v>
       </c>
-      <c r="B3" t="s">
-        <v>173</v>
-      </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" t="s">
         <v>177</v>
       </c>
-      <c r="E3" t="s">
-        <v>178</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1847,7 @@
         <v>156</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1870,7 +1867,7 @@
         <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1910,7 +1907,7 @@
         <v>157</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hdeza\curriculum-vitae\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F811E09-7C1F-4CD6-A652-4C94882D187B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B476C8-D7EA-4A14-8516-C1C14AAB17DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
   <si>
     <t>position</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Corporativo IQ160</t>
   </si>
   <si>
-    <t>Panelist</t>
-  </si>
-  <si>
     <t>Coatzacoalcos, Mexico</t>
   </si>
   <si>
@@ -586,18 +583,9 @@
     <t>Sep. 2021</t>
   </si>
   <si>
-    <t>Mar. 2022</t>
-  </si>
-  <si>
-    <t>Apr. 2022</t>
-  </si>
-  <si>
     <t>Specialized in instructional design and occupational health and safety, with expertise in applying Official Mexican Standards (NOM-017, NOM-026, NOM-002, NOM-009, NOM-019) to develop effective training courses for the Distance Training Program for Workers (PROCADIST) of the Ministry of Labor and Social Welfare (STPS), contributing to worker skill development, training, and accreditation to prevent occupational risks.</t>
   </si>
   <si>
-    <t>Led academic guidance for high school students and promoted the Bachelor's Degree in Renewable Energy Engineering (LIER), achieving an increase in student admissions per generation from 9 to 16 compared to previous cohorts.</t>
-  </si>
-  <si>
     <t>Roskilde Universitet</t>
   </si>
   <si>
@@ -610,7 +598,40 @@
     <t>Mastered core Python concepts like variables, functions, object-oriented programming, utilized libraries like Pandas and NumPy, worked with Jupyter Notebooks, and gained experience in web data extraction using APIs and Beautiful Soup.</t>
   </si>
   <si>
-    <t>Recent graduate in Renewable Energy Engineering, I am an attentive, prudent, and meticulous person who contributes to a positive and collaborative work environment. My thoroughness ensures high-quality results.</t>
+    <t>Excel Essentials for Data Analytics</t>
+  </si>
+  <si>
+    <t>Jan. 2025</t>
+  </si>
+  <si>
+    <t>Data Visualization &amp; Dashboard Essentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gained foundational skills in using Excel for data analysis, including data entry, formatting, and formula creation. Proficient in preparing and wrangling data, building pivot tables, and performing exploratory data analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed foundational skills in data visualization and dashboard creation using Microsoft Excel and IBM Cognos Analytics. Proficient in designing and generating various chart types, including line plots, bar charts, pie charts, histograms, treemaps, scatter plots, and map charts. </t>
+  </si>
+  <si>
+    <t>Mar. 2024</t>
+  </si>
+  <si>
+    <t>Social Service Intern</t>
+  </si>
+  <si>
+    <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. Access the site: [https://main--eolicaierunam.netlify.app/](https://main--eolicaierunam.netlify.app/).</t>
+  </si>
+  <si>
+    <t>Undergraduate Thesis Researcher</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
+    <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, luminance, and sound, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
+  </si>
+  <si>
+    <t>Recent Renewable Energy Engineering graduate, detail-oriented and collaborative, with a focus on delivering high-quality results. I specialize in data analysis to extract insights that drive informed decisions. Web app development enthusiast, I create efficient platforms that integrate data for improved accessibility and knowledge sharing.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +682,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -679,6 +700,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,8 +1002,7 @@
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -1392,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1417,7 +1440,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1425,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1639,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1677,7 +1700,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>167</v>
@@ -1697,7 +1720,7 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>163</v>
@@ -1713,17 +1736,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="117.44140625" bestFit="1" customWidth="1"/>
@@ -1749,47 +1772,68 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" t="s">
-        <v>177</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>180</v>
+      <c r="D3" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1797,10 +1841,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1847,12 +1891,12 @@
         <v>156</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>160</v>
@@ -1861,18 +1905,18 @@
         <v>162</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>160</v>
@@ -1887,12 +1931,12 @@
         <v>157</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>160</v>
@@ -1901,17 +1945,59 @@
         <v>162</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>185</v>
       </c>
     </row>
+    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B476C8-D7EA-4A14-8516-C1C14AAB17DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40878353-8590-43BC-B96D-5A054187C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="197">
   <si>
     <t>position</t>
   </si>
@@ -493,9 +493,6 @@
     <t>shell/bash</t>
   </si>
   <si>
-    <t>Docker</t>
-  </si>
-  <si>
     <t>Office (Excel, Word &amp; PowerPoint)</t>
   </si>
   <si>
@@ -632,6 +629,18 @@
   </si>
   <si>
     <t>Recent Renewable Energy Engineering graduate, detail-oriented and collaborative, with a focus on delivering high-quality results. I specialize in data analysis to extract insights that drive informed decisions. Web app development enthusiast, I create efficient platforms that integrate data for improved accessibility and knowledge sharing.</t>
+  </si>
+  <si>
+    <t>Databases and SQL for Data Science with Python</t>
+  </si>
+  <si>
+    <t>Feb. 2025</t>
+  </si>
+  <si>
+    <t>Learned foundational and advanced SQL techniques, including data manipulation, table creation, joins, subqueries, and integration with Python. Gained hands-on experience with real-world datasets in cloud environments, applying SQL for data analysis and data science applications.</t>
+  </si>
+  <si>
+    <t>SQL</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1060,7 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>137</v>
@@ -1415,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1448,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1563,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1602,7 +1611,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1631,7 +1640,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>146</v>
@@ -1642,7 +1651,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1650,7 +1659,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1697,36 +1706,36 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
         <v>163</v>
-      </c>
-      <c r="E3" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -1774,62 +1783,62 @@
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>173</v>
-      </c>
       <c r="D2" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1841,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1865,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1876,73 +1885,73 @@
     </row>
     <row r="2" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>99</v>
@@ -1951,47 +1960,67 @@
         <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>183</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40878353-8590-43BC-B96D-5A054187C741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB77FE5C-DCA7-4664-A117-3073DBB3DD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -502,18 +502,6 @@
     <t>course</t>
   </si>
   <si>
-    <t>Python: de cero a analista de datos</t>
-  </si>
-  <si>
-    <t>Python for Data Science, AI &amp; Development</t>
-  </si>
-  <si>
-    <t>Python Project for Data Science</t>
-  </si>
-  <si>
-    <t>Getting Started with Git and GitHub</t>
-  </si>
-  <si>
     <t>Jul. 2024</t>
   </si>
   <si>
@@ -595,15 +583,9 @@
     <t>Mastered core Python concepts like variables, functions, object-oriented programming, utilized libraries like Pandas and NumPy, worked with Jupyter Notebooks, and gained experience in web data extraction using APIs and Beautiful Soup.</t>
   </si>
   <si>
-    <t>Excel Essentials for Data Analytics</t>
-  </si>
-  <si>
     <t>Jan. 2025</t>
   </si>
   <si>
-    <t>Data Visualization &amp; Dashboard Essentials</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gained foundational skills in using Excel for data analysis, including data entry, formatting, and formula creation. Proficient in preparing and wrangling data, building pivot tables, and performing exploratory data analysis. </t>
   </si>
   <si>
@@ -631,9 +613,6 @@
     <t>Recent Renewable Energy Engineering graduate, detail-oriented and collaborative, with a focus on delivering high-quality results. I specialize in data analysis to extract insights that drive informed decisions. Web app development enthusiast, I create efficient platforms that integrate data for improved accessibility and knowledge sharing.</t>
   </si>
   <si>
-    <t>Databases and SQL for Data Science with Python</t>
-  </si>
-  <si>
     <t>Feb. 2025</t>
   </si>
   <si>
@@ -641,13 +620,34 @@
   </si>
   <si>
     <t>SQL</t>
+  </si>
+  <si>
+    <t>[Databases and SQL for Data Science with Python](https://www.coursera.org/account/accomplishments/certificate/88QFCNAUVOX8)</t>
+  </si>
+  <si>
+    <t>[Python: de cero a analista de datos](https://www.coursera.org/account/accomplishments/specialization/certificate/18MS4OKVSJOT)</t>
+  </si>
+  <si>
+    <t>[Python Project for Data Science](https://www.coursera.org/account/accomplishments/certificate/BE926ZPTRHKX)</t>
+  </si>
+  <si>
+    <t>[Python for Data Science, AI &amp; Development](https://www.coursera.org/account/accomplishments/verify/7P6VLDRQX3GS)</t>
+  </si>
+  <si>
+    <t>[Getting Started with Git and GitHub](https://www.coursera.org/account/accomplishments/certificate/H2IE49OFCTJ3)</t>
+  </si>
+  <si>
+    <t>[Excel Essentials for Data Analytics](https://www.coursera.org/account/accomplishments/certificate/S8L7AWIBZ2ER)</t>
+  </si>
+  <si>
+    <t>[Data Visualization &amp; Dashboard Essentials](https://www.coursera.org/account/accomplishments/certificate/RGI1ZTMI5RQ0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,6 +665,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -691,7 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -713,6 +721,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -996,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,7 +1069,7 @@
         <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
         <v>137</v>
@@ -1457,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1572,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1651,7 +1660,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1678,6 +1687,8 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="84.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="142.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1706,36 +1717,36 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" t="s">
         <v>169</v>
       </c>
-      <c r="C3" t="s">
-        <v>173</v>
-      </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1783,62 +1794,62 @@
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1850,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1863,7 +1874,7 @@
     <col min="6" max="6" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>149</v>
       </c>
@@ -1883,75 +1894,76 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E3" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="D4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>99</v>
@@ -1960,67 +1972,67 @@
         <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2034,7 +2046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -2093,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB77FE5C-DCA7-4664-A117-3073DBB3DD4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF94A29-4447-4158-97F5-D01B040841D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,10 @@
     <sheet name="education" sheetId="3" r:id="rId5"/>
     <sheet name="experience" sheetId="4" r:id="rId6"/>
     <sheet name="certificates" sheetId="12" r:id="rId7"/>
-    <sheet name="workshop" sheetId="5" r:id="rId8"/>
-    <sheet name="packages" sheetId="6" r:id="rId9"/>
-    <sheet name="awards" sheetId="7" r:id="rId10"/>
-    <sheet name="oral" sheetId="8" r:id="rId11"/>
+    <sheet name="oral" sheetId="8" r:id="rId8"/>
+    <sheet name="workshop" sheetId="5" r:id="rId9"/>
+    <sheet name="packages" sheetId="6" r:id="rId10"/>
+    <sheet name="awards" sheetId="7" r:id="rId11"/>
     <sheet name="poster" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="169">
   <si>
     <t>position</t>
   </si>
@@ -318,9 +318,6 @@
     <t>mastodon</t>
   </si>
   <si>
-    <t>Zurich, Switzerland</t>
-  </si>
-  <si>
     <t>researchgate</t>
   </si>
   <si>
@@ -354,21 +351,6 @@
     <t>awards</t>
   </si>
   <si>
-    <t>Ex-ante identification of policy interventions to secure a functioning ecological infrastructure: A participatory Bayesian Network approach in Switzerland</t>
-  </si>
-  <si>
-    <t>3rd Ecosystem Services Partnership Europe Regional conference</t>
-  </si>
-  <si>
-    <t>Tartu, Estonia</t>
-  </si>
-  <si>
-    <t>Jun. 2019</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2021_06_09_ESP/</t>
-  </si>
-  <si>
     <t>https://github.com/blenback/R-for-Reproducible-Research/</t>
   </si>
   <si>
@@ -378,55 +360,6 @@
     <t>link_type</t>
   </si>
   <si>
-    <t>Combining filter and embedded approaches to improve variable selection in land use change Cellular Automata models</t>
-  </si>
-  <si>
-    <t>11th International Environmental Modelling and Software Society conference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Brussels, Belgium</t>
-  </si>
-  <si>
-    <t>Jul. 2022</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2022_07_01_IEMSs_model_pres/</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2022_07_01_IEMSs_ValParCH_pres/</t>
-  </si>
-  <si>
-    <t>Characterising non-stationarity in predictive models of land use in Swiss mountain parks to inform scenarios for deliberative transformation</t>
-  </si>
-  <si>
-    <t>ValPar.CH: Integrating land use change, Ecosystem Service and Biodiversity modelling to simulate pathways for a functioning Ecological Infrastructure for Switzerland</t>
-  </si>
-  <si>
-    <t>International Mountain conference 2022</t>
-  </si>
-  <si>
-    <t>Innsbruck, Austria</t>
-  </si>
-  <si>
-    <t>Sep. 2022</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2022_09_13_IMC/</t>
-  </si>
-  <si>
-    <t>Broadening the scope of future visions for nature positive futures in Peru</t>
-  </si>
-  <si>
-    <t>Swiss Re Institute Resilience Summit 2023</t>
-  </si>
-  <si>
-    <t>Nov. 2023</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2023_11_30_SwissRE/</t>
-  </si>
-  <si>
     <t>Native</t>
   </si>
   <si>
@@ -436,33 +369,6 @@
     <t>Conversational</t>
   </si>
   <si>
-    <t>Negotiating scenarios of a desirable ecological infrastructure for Switzerland</t>
-  </si>
-  <si>
-    <t>4th Swiss Landscape Congress</t>
-  </si>
-  <si>
-    <t>Tramelan, Switzerland</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2024_5_9_Landschaft/</t>
-  </si>
-  <si>
-    <t>Normative scenarios of landscape change for Nature-Positive futures in Peru</t>
-  </si>
-  <si>
-    <t>World Biodiversity Forum</t>
-  </si>
-  <si>
-    <t>Davos, Switzerland</t>
-  </si>
-  <si>
-    <t>Jun. 2024</t>
-  </si>
-  <si>
-    <t>https://blenback.github.io/presentations/2024_20_6_WBF/</t>
-  </si>
-  <si>
     <t>Mexico City, Mexico</t>
   </si>
   <si>
@@ -641,6 +547,15 @@
   </si>
   <si>
     <t>[Data Visualization &amp; Dashboard Essentials](https://www.coursera.org/account/accomplishments/certificate/RGI1ZTMI5RQ0)</t>
+  </si>
+  <si>
+    <t>Ciencia de datos</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/episode/7zB8bpKg0ahowINRJ3JqLx?si=FdSdfznsR-eNBhCIy1793g</t>
+  </si>
+  <si>
+    <t>Collaboration on "La Araña Patona," a podcast organized by Juan Manuel Valero at Radio UNAM.</t>
   </si>
 </sst>
 </file>
@@ -699,7 +614,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -722,6 +637,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1061,31 +979,31 @@
         <v>81</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E2">
         <v>7777162890</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1097,6 +1015,192 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1132,27 +1236,27 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
         <v>87</v>
@@ -1163,177 +1267,6 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{A344B0D7-2544-4885-B67B-FC3F61A73CFD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E6" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="E2:I2" r:id="rId2" display="https://blenback.github.io/presentations/2021_06_09_ESP/" xr:uid="{91963DD6-E5D6-4B0A-B27F-4049C782886D}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{AA09F58A-6E59-4E5C-9B56-EE1D04E2B316}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{A013CEAB-2FCD-4175-B64E-AFEFC4EBC399}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{F9DCC59D-DB81-4C87-A54D-F105942D3BD7}"/>
-    <hyperlink ref="E8" r:id="rId6" xr:uid="{535CBEBE-B6BE-44AB-B4CE-F7D4B136C8B4}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1466,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1550,26 +1483,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1612,7 +1545,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1620,7 +1553,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1652,7 +1585,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1660,7 +1593,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1668,7 +1601,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1712,41 +1645,41 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1794,62 +1727,62 @@
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -1863,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1809,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1896,143 +1829,143 @@
     </row>
     <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2043,6 +1976,96 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2:I2" r:id="rId1" display="https://blenback.github.io/presentations/2021_06_09_ESP/" xr:uid="{91963DD6-E5D6-4B0A-B27F-4049C782886D}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{1DB59245-DD27-4016-9AEC-A86DE50FCCF8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2078,19 +2101,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>98</v>
       </c>
-      <c r="D2" t="s">
-        <v>99</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2099,190 +2122,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF94A29-4447-4158-97F5-D01B040841D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC53730-0BD1-4A44-94BA-812156DA8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
   <si>
     <t>position</t>
   </si>
@@ -414,148 +414,127 @@
     <t>Dec. 2024</t>
   </si>
   <si>
+    <t>UNAM</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>[UNAM](https://www.unam.mx/)</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>Sep. 2020</t>
+  </si>
+  <si>
+    <t>Ago. 2024</t>
+  </si>
+  <si>
+    <t>Renewable Energy Engineering</t>
+  </si>
+  <si>
+    <t>Business Administration Studies</t>
+  </si>
+  <si>
+    <t>Roskilde, Denmark</t>
+  </si>
+  <si>
+    <t>Sep. 2023</t>
+  </si>
+  <si>
+    <t>Jan. 2024</t>
+  </si>
+  <si>
+    <t>Universidad Nacional Autonoma de Mexico</t>
+  </si>
+  <si>
+    <t>Assistant</t>
+  </si>
+  <si>
+    <t>Corporativo IQ160</t>
+  </si>
+  <si>
+    <t>Coatzacoalcos, Mexico</t>
+  </si>
+  <si>
+    <t>Temixco, Mexico</t>
+  </si>
+  <si>
+    <t>Aug. 2021</t>
+  </si>
+  <si>
+    <t>Sep. 2021</t>
+  </si>
+  <si>
+    <t>Specialized in instructional design and occupational health and safety, with expertise in applying Official Mexican Standards (NOM-017, NOM-026, NOM-002, NOM-009, NOM-019) to develop effective training courses for the Distance Training Program for Workers (PROCADIST) of the Ministry of Labor and Social Welfare (STPS), contributing to worker skill development, training, and accreditation to prevent occupational risks.</t>
+  </si>
+  <si>
+    <t>Roskilde Universitet</t>
+  </si>
+  <si>
+    <t>Gained foundational knowledge of version control in collaborative coding and DevOps. Developed skills in using Git for distributed version control, managing repositories and branches on GitHub.</t>
+  </si>
+  <si>
+    <t>Learned about Python installation and syntax using Jupyter Notebook. Explored the ETL and EDA methodologies using Pandas and Matplotlib for data handling. Applied advanced strategies for data management and the development of reproducible projects in data handling and visualization.</t>
+  </si>
+  <si>
+    <t>Jan. 2025</t>
+  </si>
+  <si>
+    <t>Mar. 2024</t>
+  </si>
+  <si>
+    <t>Social Service Intern</t>
+  </si>
+  <si>
+    <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. Access the site: [https://main--eolicaierunam.netlify.app/](https://main--eolicaierunam.netlify.app/).</t>
+  </si>
+  <si>
+    <t>Undergraduate Thesis Researcher</t>
+  </si>
+  <si>
+    <t>May 2025</t>
+  </si>
+  <si>
+    <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, luminance, and sound, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
+  </si>
+  <si>
+    <t>Recent Renewable Energy Engineering graduate, detail-oriented and collaborative, with a focus on delivering high-quality results. I specialize in data analysis to extract insights that drive informed decisions. Web app development enthusiast, I create efficient platforms that integrate data for improved accessibility and knowledge sharing.</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>[Python: de cero a analista de datos](https://www.coursera.org/account/accomplishments/specialization/certificate/18MS4OKVSJOT)</t>
+  </si>
+  <si>
+    <t>[Getting Started with Git and GitHub](https://www.coursera.org/account/accomplishments/certificate/H2IE49OFCTJ3)</t>
+  </si>
+  <si>
+    <t>Ciencia de datos</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/episode/7zB8bpKg0ahowINRJ3JqLx?si=FdSdfznsR-eNBhCIy1793g</t>
+  </si>
+  <si>
+    <t>Collaboration on "La Araña Patona," a podcast organized by Juan Manuel Valero at Radio UNAM.</t>
+  </si>
+  <si>
+    <t>Mar. 2025</t>
+  </si>
+  <si>
+    <t>[IBM Data Analyst](https://coursera.org/share/aa76bc2f825185360a8d9fef2b005aec)</t>
+  </si>
+  <si>
+    <t>Completed an intensive 11-course program covering key data analytics principles and practical techniques. Developed expertise in data manipulation, analysis, and visualization using tools such as Excel, SQL, Python, Jupyter Notebooks, and Cognos Analytics. Gained hands-on experience with real-world datasets, applying advanced SQL skills, including table creation, joins, subqueries, and Python integration to drive data-driven insights. Demonstrated proficiency in building interactive dashboards, performing comprehensive data analyses, and presenting actionable reports, effectively preparing for an entry-level role in data analytics.</t>
+  </si>
+  <si>
     <t>Aug. 2024</t>
   </si>
   <si>
-    <t>Demonstrated foundational Python skills for data analysis through a real-world project. Applied data science techniques to identify patterns and trends in a given dataset.</t>
-  </si>
-  <si>
-    <t>UNAM</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>[UNAM](https://www.unam.mx/)</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Sep. 2020</t>
-  </si>
-  <si>
-    <t>Ago. 2024</t>
-  </si>
-  <si>
-    <t>Renewable Energy Engineering</t>
-  </si>
-  <si>
-    <t>Business Administration Studies</t>
-  </si>
-  <si>
-    <t>Roskilde, Denmark</t>
-  </si>
-  <si>
-    <t>Sep. 2023</t>
-  </si>
-  <si>
-    <t>Jan. 2024</t>
-  </si>
-  <si>
-    <t>Universidad Nacional Autonoma de Mexico</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>Corporativo IQ160</t>
-  </si>
-  <si>
-    <t>Coatzacoalcos, Mexico</t>
-  </si>
-  <si>
-    <t>Temixco, Mexico</t>
-  </si>
-  <si>
-    <t>Aug. 2021</t>
-  </si>
-  <si>
-    <t>Sep. 2021</t>
-  </si>
-  <si>
-    <t>Specialized in instructional design and occupational health and safety, with expertise in applying Official Mexican Standards (NOM-017, NOM-026, NOM-002, NOM-009, NOM-019) to develop effective training courses for the Distance Training Program for Workers (PROCADIST) of the Ministry of Labor and Social Welfare (STPS), contributing to worker skill development, training, and accreditation to prevent occupational risks.</t>
-  </si>
-  <si>
-    <t>Roskilde Universitet</t>
-  </si>
-  <si>
-    <t>Gained foundational knowledge of version control in collaborative coding and DevOps. Developed skills in using Git for distributed version control, managing repositories and branches on GitHub.</t>
-  </si>
-  <si>
-    <t>Learned about Python installation and syntax using Jupyter Notebook. Explored the ETL and EDA methodologies using Pandas and Matplotlib for data handling. Applied advanced strategies for data management and the development of reproducible projects in data handling and visualization.</t>
-  </si>
-  <si>
-    <t>Mastered core Python concepts like variables, functions, object-oriented programming, utilized libraries like Pandas and NumPy, worked with Jupyter Notebooks, and gained experience in web data extraction using APIs and Beautiful Soup.</t>
-  </si>
-  <si>
-    <t>Jan. 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gained foundational skills in using Excel for data analysis, including data entry, formatting, and formula creation. Proficient in preparing and wrangling data, building pivot tables, and performing exploratory data analysis. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed foundational skills in data visualization and dashboard creation using Microsoft Excel and IBM Cognos Analytics. Proficient in designing and generating various chart types, including line plots, bar charts, pie charts, histograms, treemaps, scatter plots, and map charts. </t>
-  </si>
-  <si>
-    <t>Mar. 2024</t>
-  </si>
-  <si>
-    <t>Social Service Intern</t>
-  </si>
-  <si>
-    <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. Access the site: [https://main--eolicaierunam.netlify.app/](https://main--eolicaierunam.netlify.app/).</t>
-  </si>
-  <si>
-    <t>Undergraduate Thesis Researcher</t>
-  </si>
-  <si>
-    <t>May 2025</t>
-  </si>
-  <si>
-    <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, luminance, and sound, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
-  </si>
-  <si>
-    <t>Recent Renewable Energy Engineering graduate, detail-oriented and collaborative, with a focus on delivering high-quality results. I specialize in data analysis to extract insights that drive informed decisions. Web app development enthusiast, I create efficient platforms that integrate data for improved accessibility and knowledge sharing.</t>
-  </si>
-  <si>
-    <t>Feb. 2025</t>
-  </si>
-  <si>
-    <t>Learned foundational and advanced SQL techniques, including data manipulation, table creation, joins, subqueries, and integration with Python. Gained hands-on experience with real-world datasets in cloud environments, applying SQL for data analysis and data science applications.</t>
-  </si>
-  <si>
-    <t>SQL</t>
-  </si>
-  <si>
-    <t>[Databases and SQL for Data Science with Python](https://www.coursera.org/account/accomplishments/certificate/88QFCNAUVOX8)</t>
-  </si>
-  <si>
-    <t>[Python: de cero a analista de datos](https://www.coursera.org/account/accomplishments/specialization/certificate/18MS4OKVSJOT)</t>
-  </si>
-  <si>
-    <t>[Python Project for Data Science](https://www.coursera.org/account/accomplishments/certificate/BE926ZPTRHKX)</t>
-  </si>
-  <si>
-    <t>[Python for Data Science, AI &amp; Development](https://www.coursera.org/account/accomplishments/verify/7P6VLDRQX3GS)</t>
-  </si>
-  <si>
-    <t>[Getting Started with Git and GitHub](https://www.coursera.org/account/accomplishments/certificate/H2IE49OFCTJ3)</t>
-  </si>
-  <si>
-    <t>[Excel Essentials for Data Analytics](https://www.coursera.org/account/accomplishments/certificate/S8L7AWIBZ2ER)</t>
-  </si>
-  <si>
-    <t>[Data Visualization &amp; Dashboard Essentials](https://www.coursera.org/account/accomplishments/certificate/RGI1ZTMI5RQ0)</t>
-  </si>
-  <si>
-    <t>Ciencia de datos</t>
-  </si>
-  <si>
-    <t>https://open.spotify.com/episode/7zB8bpKg0ahowINRJ3JqLx?si=FdSdfznsR-eNBhCIy1793g</t>
-  </si>
-  <si>
-    <t>Collaboration on "La Araña Patona," a podcast organized by Juan Manuel Valero at Radio UNAM.</t>
+    <t>Power BI</t>
   </si>
 </sst>
 </file>
@@ -614,7 +593,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -632,9 +611,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,7 +963,7 @@
         <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -1399,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1512,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1602,6 +1578,14 @@
       </c>
       <c r="B10" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1650,36 +1634,36 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1727,62 +1711,62 @@
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>98</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>98</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1794,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1807,7 +1791,7 @@
     <col min="6" max="6" width="57.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>118</v>
       </c>
@@ -1827,145 +1811,64 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +1882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2010,19 +1913,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2043,7 +1946,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
+      <c r="B6" s="9"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2051,7 +1954,7 @@
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="E8" s="2"/>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC53730-0BD1-4A44-94BA-812156DA8F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19486C-537B-4BE3-BED9-222159A7F767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
     <sheet name="profil" sheetId="10" r:id="rId2"/>
     <sheet name="languages" sheetId="11" r:id="rId3"/>
     <sheet name="skills" sheetId="2" r:id="rId4"/>
-    <sheet name="education" sheetId="3" r:id="rId5"/>
-    <sheet name="experience" sheetId="4" r:id="rId6"/>
-    <sheet name="certificates" sheetId="12" r:id="rId7"/>
-    <sheet name="oral" sheetId="8" r:id="rId8"/>
-    <sheet name="workshop" sheetId="5" r:id="rId9"/>
-    <sheet name="packages" sheetId="6" r:id="rId10"/>
-    <sheet name="awards" sheetId="7" r:id="rId11"/>
-    <sheet name="poster" sheetId="9" r:id="rId12"/>
+    <sheet name="soft" sheetId="13" r:id="rId5"/>
+    <sheet name="education" sheetId="3" r:id="rId6"/>
+    <sheet name="experience" sheetId="4" r:id="rId7"/>
+    <sheet name="certificates" sheetId="12" r:id="rId8"/>
+    <sheet name="oral" sheetId="8" r:id="rId9"/>
+    <sheet name="workshop" sheetId="5" r:id="rId10"/>
+    <sheet name="packages" sheetId="6" r:id="rId11"/>
+    <sheet name="awards" sheetId="7" r:id="rId12"/>
+    <sheet name="poster" sheetId="9" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">poster!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">poster!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="171">
   <si>
     <t>position</t>
   </si>
@@ -501,9 +502,6 @@
     <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, luminance, and sound, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
   </si>
   <si>
-    <t>Recent Renewable Energy Engineering graduate, detail-oriented and collaborative, with a focus on delivering high-quality results. I specialize in data analysis to extract insights that drive informed decisions. Web app development enthusiast, I create efficient platforms that integrate data for improved accessibility and knowledge sharing.</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -535,6 +533,36 @@
   </si>
   <si>
     <t>Power BI</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>[Quality Management Foundations](https://www.linkedin.com/learning/certificates/eb7314b0c3e32c67f47b2b4c199c50268a72584174efb7b27c539261c1bd7a88?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>[Introducción a la calidad](https://coursera.org/share/09a4238d5bd86d01337b368040652ce2)</t>
+  </si>
+  <si>
+    <t>Gained a comprehensive understanding of quality management systems, with a focus on ISO 9000 and practical quality tools. Studied the Deming cycle, Kaizen, and the Toyota Production System, including methodologies like 5S, Just-In-Time, and Kanban to optimize operations. Also explored key aspects of capacity planning, facility location, plant layout, and inventory management, along with sustainable practices based on ISO 14000 for environmental responsibility.</t>
+  </si>
+  <si>
+    <t>Completed an in-depth course covering key quality management frameworks and tools. Learned to apply Deming’s 14 Points, the Baldrige Excellence Framework, and ISO 9000 principles, while utilizing strategies such as Lean (Kaizen, Poka-Yoke), Pareto analysis, and Six Sigma DMAIC. Developed skills in fostering leadership, teamwork, and continuous improvement to meet customer expectations and drive long-term business success.</t>
+  </si>
+  <si>
+    <t>Analytical thinking</t>
+  </si>
+  <si>
+    <t>Strategic problem solving</t>
+  </si>
+  <si>
+    <t>Attention to detail</t>
+  </si>
+  <si>
+    <t>Continuous learning</t>
+  </si>
+  <si>
+    <t>Recent Renewable Energy Engineering graduate with a strong foundation in quality management, including knowledge of frameworks and tools for continuous improvement and quality management. Attentive, prudent, and meticulous, I am committed to contributing to a positive and collaborative work environment by leveraging my technical expertise. I specialize in data analysis to extract insights that support informed decisions and create efficient platforms that enhance data accessibility and knowledge sharing.</t>
   </si>
 </sst>
 </file>
@@ -991,6 +1019,65 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="131" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{08D31B25-1D87-4794-9C38-3A297CD026BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1176,7 +1263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1246,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1342,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1367,7 +1454,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1375,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1490,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1569,7 +1656,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1585,7 +1672,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1594,6 +1681,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8159E0C-6DBB-4A10-B27C-0E422FDDF1F4}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1671,7 +1801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1776,12 +1906,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1813,7 +1943,7 @@
     </row>
     <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>122</v>
@@ -1833,7 +1963,7 @@
     </row>
     <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>121</v>
@@ -1853,7 +1983,7 @@
     </row>
     <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>122</v>
@@ -1862,13 +1992,53 @@
         <v>124</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +2048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -1913,10 +2083,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>124</v>
@@ -1925,7 +2095,7 @@
         <v>143</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1966,63 +2136,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="131" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{08D31B25-1D87-4794-9C38-3A297CD026BD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF19486C-537B-4BE3-BED9-222159A7F767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B14A94-C227-45BB-B9C6-BBF370DF3CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>advanced</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>intermediate</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
     <t>Git</t>
   </si>
   <si>
-    <t>CSS</t>
-  </si>
-  <si>
     <t>website</t>
   </si>
   <si>
@@ -394,18 +388,9 @@
     <t>Italian</t>
   </si>
   <si>
-    <t>Shiny, Quarto</t>
-  </si>
-  <si>
-    <t>shell/bash</t>
-  </si>
-  <si>
     <t>Office (Excel, Word &amp; PowerPoint)</t>
   </si>
   <si>
-    <t>C/C++</t>
-  </si>
-  <si>
     <t>course</t>
   </si>
   <si>
@@ -475,9 +460,6 @@
     <t>Roskilde Universitet</t>
   </si>
   <si>
-    <t>Gained foundational knowledge of version control in collaborative coding and DevOps. Developed skills in using Git for distributed version control, managing repositories and branches on GitHub.</t>
-  </si>
-  <si>
     <t>Learned about Python installation and syntax using Jupyter Notebook. Explored the ETL and EDA methodologies using Pandas and Matplotlib for data handling. Applied advanced strategies for data management and the development of reproducible projects in data handling and visualization.</t>
   </si>
   <si>
@@ -508,9 +490,6 @@
     <t>[Python: de cero a analista de datos](https://www.coursera.org/account/accomplishments/specialization/certificate/18MS4OKVSJOT)</t>
   </si>
   <si>
-    <t>[Getting Started with Git and GitHub](https://www.coursera.org/account/accomplishments/certificate/H2IE49OFCTJ3)</t>
-  </si>
-  <si>
     <t>Ciencia de datos</t>
   </si>
   <si>
@@ -563,6 +542,27 @@
   </si>
   <si>
     <t>Recent Renewable Energy Engineering graduate with a strong foundation in quality management, including knowledge of frameworks and tools for continuous improvement and quality management. Attentive, prudent, and meticulous, I am committed to contributing to a positive and collaborative work environment by leveraging my technical expertise. I specialize in data analysis to extract insights that support informed decisions and create efficient platforms that enhance data accessibility and knowledge sharing.</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>Minitab</t>
+  </si>
+  <si>
+    <t>[Lean Six Sigma Foundations](https://www.linkedin.com/learning/certificates/d1054b624223293c88bec453c012e29f06a0d622209068143b55e498cee9345f?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>[Aprende Minitab](https://www.linkedin.com/learning/certificates/8255066557f796dc8ae0cb7e41a69f450b27cb0503f5869951bc07e284372419)</t>
+  </si>
+  <si>
+    <t>Apr. 2025</t>
+  </si>
+  <si>
+    <t>Learned the core functionalities of Minitab, from basic operations to advanced statistical techniques. Applied practical, step-by-step methods to interpret and analyze complex data, maximizing the software’s capabilities for effective data-driven decision-making.</t>
+  </si>
+  <si>
+    <t>Gained a solid foundation in Lean Six Sigma by integrating Lean principles with Six Sigma methodologies to enhance performance and systematically eliminate waste. Explored the DMAIC process, Lean tools (5S, Kanban, poka-yoke, kaizen), and leadership strategies for effective project execution in services and supply chain management.</t>
   </si>
 </sst>
 </file>
@@ -962,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -977,37 +977,37 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E2">
         <v>7777162890</v>
       </c>
       <c r="F2" s="2"/>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1037,36 +1037,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>96</v>
       </c>
-      <c r="C2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1098,163 +1098,163 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
         <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
       <c r="D6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
-        <v>83</v>
-      </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1281,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1290,39 +1290,39 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1349,75 +1349,75 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>53</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1442,27 +1442,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1481,13 +1481,13 @@
     </row>
     <row r="4" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1495,13 +1495,13 @@
     </row>
     <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1509,13 +1509,13 @@
     </row>
     <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1546,26 +1546,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1575,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1608,71 +1608,47 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1700,22 +1676,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1741,59 +1717,59 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
         <v>127</v>
       </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1830,73 +1806,73 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1908,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1923,7 +1899,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
@@ -1932,113 +1908,133 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="E3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="D4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>165</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2066,36 +2062,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B14A94-C227-45BB-B9C6-BBF370DF3CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7760DC7-EB58-45A0-8862-DB8683815098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="177">
   <si>
     <t>position</t>
   </si>
@@ -563,6 +563,24 @@
   </si>
   <si>
     <t>Gained a solid foundation in Lean Six Sigma by integrating Lean principles with Six Sigma methodologies to enhance performance and systematically eliminate waste. Explored the DMAIC process, Lean tools (5S, Kanban, poka-yoke, kaizen), and leadership strategies for effective project execution in services and supply chain management.</t>
+  </si>
+  <si>
+    <t>Apr. 2026</t>
+  </si>
+  <si>
+    <t>Learned data analytics techniques for Lean Six Sigma improvement projects using Minitab. Explored the practical use of analytical tools to interpret and analyze project data through real-world examples and applied methodologies that extend beyond traditional improvement projects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired a customer-centric, data-driven approach to enhancing processes, products, and services through Six Sigma methodologies. Prepared for Green Belt certification utilizing statistical tools and techniques in part-time Six Sigma projects. </t>
+  </si>
+  <si>
+    <t>University of Amsterdam</t>
+  </si>
+  <si>
+    <t>[Six Sigma Green Belt](https://www.linkedin.com/learning/certificates/c28ad17e1ca37689e3a62f70ec50c0426f1bacefd12b42d2e6d0f73794935c4c?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>[Data Analytics for Lean Six Sigma](https://coursera.org/share/016c79ba10738fb29a700c96dde17379)</t>
   </si>
 </sst>
 </file>
@@ -1884,10 +1902,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,6 +2053,46 @@
       </c>
       <c r="F7" s="6" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7760DC7-EB58-45A0-8862-DB8683815098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D96AA-ECAC-4AE8-B6C0-1542944F0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,16 @@
     <sheet name="soft" sheetId="13" r:id="rId5"/>
     <sheet name="education" sheetId="3" r:id="rId6"/>
     <sheet name="experience" sheetId="4" r:id="rId7"/>
-    <sheet name="certificates" sheetId="12" r:id="rId8"/>
-    <sheet name="oral" sheetId="8" r:id="rId9"/>
-    <sheet name="workshop" sheetId="5" r:id="rId10"/>
-    <sheet name="packages" sheetId="6" r:id="rId11"/>
-    <sheet name="awards" sheetId="7" r:id="rId12"/>
-    <sheet name="poster" sheetId="9" r:id="rId13"/>
+    <sheet name="volunteering" sheetId="14" r:id="rId8"/>
+    <sheet name="certificates" sheetId="12" r:id="rId9"/>
+    <sheet name="oral" sheetId="8" r:id="rId10"/>
+    <sheet name="workshop" sheetId="5" r:id="rId11"/>
+    <sheet name="packages" sheetId="6" r:id="rId12"/>
+    <sheet name="awards" sheetId="7" r:id="rId13"/>
+    <sheet name="poster" sheetId="9" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">poster!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">poster!$A$1:$E$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
   <si>
     <t>position</t>
   </si>
@@ -436,27 +437,9 @@
     <t>Universidad Nacional Autonoma de Mexico</t>
   </si>
   <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>Corporativo IQ160</t>
-  </si>
-  <si>
-    <t>Coatzacoalcos, Mexico</t>
-  </si>
-  <si>
     <t>Temixco, Mexico</t>
   </si>
   <si>
-    <t>Aug. 2021</t>
-  </si>
-  <si>
-    <t>Sep. 2021</t>
-  </si>
-  <si>
-    <t>Specialized in instructional design and occupational health and safety, with expertise in applying Official Mexican Standards (NOM-017, NOM-026, NOM-002, NOM-009, NOM-019) to develop effective training courses for the Distance Training Program for Workers (PROCADIST) of the Ministry of Labor and Social Welfare (STPS), contributing to worker skill development, training, and accreditation to prevent occupational risks.</t>
-  </si>
-  <si>
     <t>Roskilde Universitet</t>
   </si>
   <si>
@@ -472,18 +455,12 @@
     <t>Social Service Intern</t>
   </si>
   <si>
-    <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. Access the site: [https://main--eolicaierunam.netlify.app/](https://main--eolicaierunam.netlify.app/).</t>
-  </si>
-  <si>
     <t>Undergraduate Thesis Researcher</t>
   </si>
   <si>
     <t>May 2025</t>
   </si>
   <si>
-    <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, luminance, and sound, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
@@ -520,12 +497,6 @@
     <t>[Quality Management Foundations](https://www.linkedin.com/learning/certificates/eb7314b0c3e32c67f47b2b4c199c50268a72584174efb7b27c539261c1bd7a88?trk=share_certificate)</t>
   </si>
   <si>
-    <t>[Introducción a la calidad](https://coursera.org/share/09a4238d5bd86d01337b368040652ce2)</t>
-  </si>
-  <si>
-    <t>Gained a comprehensive understanding of quality management systems, with a focus on ISO 9000 and practical quality tools. Studied the Deming cycle, Kaizen, and the Toyota Production System, including methodologies like 5S, Just-In-Time, and Kanban to optimize operations. Also explored key aspects of capacity planning, facility location, plant layout, and inventory management, along with sustainable practices based on ISO 14000 for environmental responsibility.</t>
-  </si>
-  <si>
     <t>Completed an in-depth course covering key quality management frameworks and tools. Learned to apply Deming’s 14 Points, the Baldrige Excellence Framework, and ISO 9000 principles, while utilizing strategies such as Lean (Kaizen, Poka-Yoke), Pareto analysis, and Six Sigma DMAIC. Developed skills in fostering leadership, teamwork, and continuous improvement to meet customer expectations and drive long-term business success.</t>
   </si>
   <si>
@@ -581,6 +552,24 @@
   </si>
   <si>
     <t>[Data Analytics for Lean Six Sigma](https://coursera.org/share/016c79ba10738fb29a700c96dde17379)</t>
+  </si>
+  <si>
+    <t>Sep. 2025</t>
+  </si>
+  <si>
+    <t>I analyzed social media metrics to evaluate campaign performance, conducted both quantitative and qualitative assessments of audience engagement, and generated comprehensive impact reports to inform strategic decision-making. My role significantly contributed to enhancing the digital presence and outreach of the congress, ensuring effective dissemination of event information and strengthening its overall online image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social Media and Broadcast Analyst </t>
+  </si>
+  <si>
+    <t>CNEER</t>
+  </si>
+  <si>
+    <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, sound, and illuminance, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
+  </si>
+  <si>
+    <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. [Access the site here](https://main--eolicaierunam.netlify.app/).</t>
   </si>
 </sst>
 </file>
@@ -664,7 +653,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -949,7 +938,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.88671875" bestFit="1" customWidth="1"/>
@@ -1037,6 +1026,96 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="54.6640625" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="E8" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2:I2" r:id="rId1" display="https://blenback.github.io/presentations/2021_06_09_ESP/" xr:uid="{91963DD6-E5D6-4B0A-B27F-4049C782886D}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{1DB59245-DD27-4016-9AEC-A86DE50FCCF8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1044,7 +1123,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
@@ -1095,7 +1174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -1103,7 +1182,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
@@ -1281,7 +1360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1289,7 +1368,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
@@ -1351,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1359,7 +1438,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
@@ -1451,7 +1530,7 @@
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" customWidth="1"/>
@@ -1480,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1552,7 +1631,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1595,11 +1674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
@@ -1642,7 +1721,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1650,7 +1729,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1658,7 +1737,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1666,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1761,7 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1694,22 +1773,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1725,7 +1804,7 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="84.33203125" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
@@ -1761,7 +1840,7 @@
         <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
@@ -1781,7 +1860,7 @@
         <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>120</v>
@@ -1797,13 +1876,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
@@ -1835,62 +1914,42 @@
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="5" t="s">
         <v>96</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="F3" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1901,14 +1960,78 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E050452-1706-404D-B355-6C16037B2027}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
     <col min="2" max="3" width="23.109375" customWidth="1"/>
@@ -1937,7 +2060,7 @@
     </row>
     <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>116</v>
@@ -1952,12 +2075,12 @@
         <v>115</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>117</v>
@@ -1966,133 +2089,113 @@
         <v>119</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2100,94 +2203,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="9"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="E8" s="2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2:I2" r:id="rId1" display="https://blenback.github.io/presentations/2021_06_09_ESP/" xr:uid="{91963DD6-E5D6-4B0A-B27F-4049C782886D}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{1DB59245-DD27-4016-9AEC-A86DE50FCCF8}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
 </file>
--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F19D96AA-ECAC-4AE8-B6C0-1542944F0752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249BB758-F9B1-4345-AE0B-188A7ECAB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
   <si>
     <t>position</t>
   </si>
@@ -570,6 +570,52 @@
   </si>
   <si>
     <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. [Access the site here](https://main--eolicaierunam.netlify.app/).</t>
+  </si>
+  <si>
+    <t>Developed leadership and teamwork expertise by analyzing methods to foster individual growth and drive continuous team advancement; mastered providing and receiving feedback, conducting difficult conversations, and effectively communicating team mission, while applying trust-building and well-being strategies to enhance team performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired a comprehensive foundation in leadership fundamentals within rapidly evolving technological and business environments, emphasizing the leader’s role in managing change and shaping organizational culture. Explored four dimensions of leadership (personal, team, organizational, and external) and learned practical 
+actions to inspire, connect, and mobilize teams toward effective collective action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired data analysis and visualization expertise using Microsoft Power BI Desktop; connected to diverse data sources, including Excel, relational databases, and web sources like Wikipedia; shaped and transformed data with the integrated Power Query Editor; created and organized interactive visualizations and reports; and learned to publish, share, and manage Power BI assets for streamlined insight dissemination. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired end-to-end data analysis and business intelligence skills using the full Microsoft Power BI suite-service, Desktop, and Mobile; connected to diverse data sources, modeled and transformed data, designed and organized interactive reports, pinned and shared dashboards, employed Q&amp;A natural-language queries, and leveraged desktop data modeling capabilities for actionable insights. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquired proficiency in Microsoft Power BI by connecting to single or multiple data sources through a secure,  intuitive interface to transform and interpret data; designing interactive dashboards and reports; collaborating seamlessly within a unified platform. </t>
+  </si>
+  <si>
+    <t>[Aprende Power BI](https://www.linkedin.com/learning/certificates/48485e6403f7f1e38136cb0bd12a35a0b1a23126e17890cbe3fee90dd7205e4b?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>[Power BI Essential Training](https://www.linkedin.com/learning/certificates/35c6e0e304e07bbd77d885270322b07eef57a3a3369d368dbda3a5848e091a70?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>[Fundamentos del liderazgo](https://www.linkedin.com/learning/certificates/fb0fb94a9866b79d5aaefac7c3bb0b04c74441320545c02b9164907700f8611a?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>[Liderazgo y trabajo en equipo](https://www.linkedin.com/learning/certificates/71801e7ea59ee135c9e4859228dc523f76c5952eb7be43184e45286c83054340?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>[Learning Power BI Desktop](https://www.linkedin.com/learning/certificates/29a74ce3989818a656bf7a9a52d13eab92825e193eddf03179d55787ed4ec8ae?trk=share_certificate)</t>
+  </si>
+  <si>
+    <t>Data Analyst and Web App Developer</t>
+  </si>
+  <si>
+    <t>IER-UNAM</t>
+  </si>
+  <si>
+    <t>Temixco, Morelos</t>
+  </si>
+  <si>
+    <t>Jul. 2025</t>
+  </si>
+  <si>
+    <t>Collaborated on the design and development of a web application for solar radiation and meteorological data monitoring and analysis (ESOLMET); gained hands-on experience in Git-based version control, Python data processing, interactive dashboard and web app development with Shiny for Python, and SQL database design and management.</t>
   </si>
 </sst>
 </file>
@@ -1674,8 +1720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1705,15 +1751,15 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1721,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1734,10 +1780,10 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1745,7 +1791,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1961,10 +2007,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E050452-1706-404D-B355-6C16037B2027}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1997,23 +2043,43 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2025,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2198,6 +2264,106 @@
         <v>162</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249BB758-F9B1-4345-AE0B-188A7ECAB9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03DA89D-2A54-4B70-850F-4FE989690C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="185">
   <si>
     <t>position</t>
   </si>
@@ -554,18 +554,6 @@
     <t>[Data Analytics for Lean Six Sigma](https://coursera.org/share/016c79ba10738fb29a700c96dde17379)</t>
   </si>
   <si>
-    <t>Sep. 2025</t>
-  </si>
-  <si>
-    <t>I analyzed social media metrics to evaluate campaign performance, conducted both quantitative and qualitative assessments of audience engagement, and generated comprehensive impact reports to inform strategic decision-making. My role significantly contributed to enhancing the digital presence and outreach of the congress, ensuring effective dissemination of event information and strengthening its overall online image.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social Media and Broadcast Analyst </t>
-  </si>
-  <si>
-    <t>CNEER</t>
-  </si>
-  <si>
     <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, sound, and illuminance, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
   </si>
   <si>
@@ -616,6 +604,9 @@
   </si>
   <si>
     <t>Collaborated on the design and development of a web application for solar radiation and meteorological data monitoring and analysis (ESOLMET); gained hands-on experience in Git-based version control, Python data processing, interactive dashboard and web app development with Shiny for Python, and SQL database design and management.</t>
+  </si>
+  <si>
+    <t>Linux</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1709,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,6 +1782,14 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1975,7 +1974,7 @@
         <v>96</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1995,7 +1994,7 @@
         <v>135</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2007,10 +2006,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E050452-1706-404D-B355-6C16037B2027}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,42 +2044,22 @@
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2266,7 +2245,7 @@
     </row>
     <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>146</v>
@@ -2281,12 +2260,12 @@
         <v>161</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>146</v>
@@ -2301,12 +2280,12 @@
         <v>161</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>146</v>
@@ -2321,12 +2300,12 @@
         <v>161</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>146</v>
@@ -2341,12 +2320,12 @@
         <v>161</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>146</v>
@@ -2361,7 +2340,7 @@
         <v>161</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03DA89D-2A54-4B70-850F-4FE989690C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A1F224-A6C3-4D46-A0B5-080A9FE6E591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="177">
   <si>
     <t>position</t>
   </si>
@@ -494,12 +494,6 @@
     <t>LinkedIn</t>
   </si>
   <si>
-    <t>[Quality Management Foundations](https://www.linkedin.com/learning/certificates/eb7314b0c3e32c67f47b2b4c199c50268a72584174efb7b27c539261c1bd7a88?trk=share_certificate)</t>
-  </si>
-  <si>
-    <t>Completed an in-depth course covering key quality management frameworks and tools. Learned to apply Deming’s 14 Points, the Baldrige Excellence Framework, and ISO 9000 principles, while utilizing strategies such as Lean (Kaizen, Poka-Yoke), Pareto analysis, and Six Sigma DMAIC. Developed skills in fostering leadership, teamwork, and continuous improvement to meet customer expectations and drive long-term business success.</t>
-  </si>
-  <si>
     <t>Analytical thinking</t>
   </si>
   <si>
@@ -512,9 +506,6 @@
     <t>Continuous learning</t>
   </si>
   <si>
-    <t>Recent Renewable Energy Engineering graduate with a strong foundation in quality management, including knowledge of frameworks and tools for continuous improvement and quality management. Attentive, prudent, and meticulous, I am committed to contributing to a positive and collaborative work environment by leveraging my technical expertise. I specialize in data analysis to extract insights that support informed decisions and create efficient platforms that enhance data accessibility and knowledge sharing.</t>
-  </si>
-  <si>
     <t>Tableau</t>
   </si>
   <si>
@@ -542,15 +533,9 @@
     <t>Learned data analytics techniques for Lean Six Sigma improvement projects using Minitab. Explored the practical use of analytical tools to interpret and analyze project data through real-world examples and applied methodologies that extend beyond traditional improvement projects.</t>
   </si>
   <si>
-    <t xml:space="preserve">Acquired a customer-centric, data-driven approach to enhancing processes, products, and services through Six Sigma methodologies. Prepared for Green Belt certification utilizing statistical tools and techniques in part-time Six Sigma projects. </t>
-  </si>
-  <si>
     <t>University of Amsterdam</t>
   </si>
   <si>
-    <t>[Six Sigma Green Belt](https://www.linkedin.com/learning/certificates/c28ad17e1ca37689e3a62f70ec50c0426f1bacefd12b42d2e6d0f73794935c4c?trk=share_certificate)</t>
-  </si>
-  <si>
     <t>[Data Analytics for Lean Six Sigma](https://coursera.org/share/016c79ba10738fb29a700c96dde17379)</t>
   </si>
   <si>
@@ -560,13 +545,6 @@
     <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. [Access the site here](https://main--eolicaierunam.netlify.app/).</t>
   </si>
   <si>
-    <t>Developed leadership and teamwork expertise by analyzing methods to foster individual growth and drive continuous team advancement; mastered providing and receiving feedback, conducting difficult conversations, and effectively communicating team mission, while applying trust-building and well-being strategies to enhance team performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired a comprehensive foundation in leadership fundamentals within rapidly evolving technological and business environments, emphasizing the leader’s role in managing change and shaping organizational culture. Explored four dimensions of leadership (personal, team, organizational, and external) and learned practical 
-actions to inspire, connect, and mobilize teams toward effective collective action. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Acquired data analysis and visualization expertise using Microsoft Power BI Desktop; connected to diverse data sources, including Excel, relational databases, and web sources like Wikipedia; shaped and transformed data with the integrated Power Query Editor; created and organized interactive visualizations and reports; and learned to publish, share, and manage Power BI assets for streamlined insight dissemination. </t>
   </si>
   <si>
@@ -582,12 +560,6 @@
     <t>[Power BI Essential Training](https://www.linkedin.com/learning/certificates/35c6e0e304e07bbd77d885270322b07eef57a3a3369d368dbda3a5848e091a70?trk=share_certificate)</t>
   </si>
   <si>
-    <t>[Fundamentos del liderazgo](https://www.linkedin.com/learning/certificates/fb0fb94a9866b79d5aaefac7c3bb0b04c74441320545c02b9164907700f8611a?trk=share_certificate)</t>
-  </si>
-  <si>
-    <t>[Liderazgo y trabajo en equipo](https://www.linkedin.com/learning/certificates/71801e7ea59ee135c9e4859228dc523f76c5952eb7be43184e45286c83054340?trk=share_certificate)</t>
-  </si>
-  <si>
     <t>[Learning Power BI Desktop](https://www.linkedin.com/learning/certificates/29a74ce3989818a656bf7a9a52d13eab92825e193eddf03179d55787ed4ec8ae?trk=share_certificate)</t>
   </si>
   <si>
@@ -607,6 +579,10 @@
   </si>
   <si>
     <t>Linux</t>
+  </si>
+  <si>
+    <t>Renewable energy engineer with experience in ETL flow development. I have a solid background in quality management and continuous improvement, enabling me to optimize processes and ensure data integrity.
+I specialize in data analysis (Python, SQL, Power BI) to transform information into actionable insights and in creating interactive platforms that facilitate decision-making and knowledge sharing. My attention to detail, analytical skills, and collaborative approach drive me to contribute innovative solutions and foster a positive and efficient work environment.</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1540,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1588,7 +1564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1596,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1711,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1766,7 +1742,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1782,7 +1758,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1790,7 +1766,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1802,8 +1778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8159E0C-6DBB-4A10-B27C-0E422FDDF1F4}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1818,22 +1794,22 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +1950,7 @@
         <v>96</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1994,7 +1970,7 @@
         <v>135</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2044,22 +2020,22 @@
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>131</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2070,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2145,7 +2121,7 @@
     </row>
     <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>146</v>
@@ -2160,12 +2136,12 @@
         <v>141</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>146</v>
@@ -2177,24 +2153,24 @@
         <v>141</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>158</v>
@@ -2205,7 +2181,7 @@
     </row>
     <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>146</v>
@@ -2214,38 +2190,38 @@
         <v>119</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>146</v>
@@ -2254,93 +2230,13 @@
         <v>119</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A1F224-A6C3-4D46-A0B5-080A9FE6E591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D8078-FB55-4A27-A71A-1394C4226E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
   <si>
     <t>position</t>
   </si>
@@ -395,12 +395,6 @@
     <t>course</t>
   </si>
   <si>
-    <t>Jul. 2024</t>
-  </si>
-  <si>
-    <t>Dec. 2024</t>
-  </si>
-  <si>
     <t>UNAM</t>
   </si>
   <si>
@@ -443,18 +437,9 @@
     <t>Roskilde Universitet</t>
   </si>
   <si>
-    <t>Learned about Python installation and syntax using Jupyter Notebook. Explored the ETL and EDA methodologies using Pandas and Matplotlib for data handling. Applied advanced strategies for data management and the development of reproducible projects in data handling and visualization.</t>
-  </si>
-  <si>
     <t>Jan. 2025</t>
   </si>
   <si>
-    <t>Mar. 2024</t>
-  </si>
-  <si>
-    <t>Social Service Intern</t>
-  </si>
-  <si>
     <t>Undergraduate Thesis Researcher</t>
   </si>
   <si>
@@ -467,27 +452,12 @@
     <t>[Python: de cero a analista de datos](https://www.coursera.org/account/accomplishments/specialization/certificate/18MS4OKVSJOT)</t>
   </si>
   <si>
-    <t>Ciencia de datos</t>
-  </si>
-  <si>
-    <t>https://open.spotify.com/episode/7zB8bpKg0ahowINRJ3JqLx?si=FdSdfznsR-eNBhCIy1793g</t>
-  </si>
-  <si>
     <t>Collaboration on "La Araña Patona," a podcast organized by Juan Manuel Valero at Radio UNAM.</t>
   </si>
   <si>
-    <t>Mar. 2025</t>
-  </si>
-  <si>
     <t>[IBM Data Analyst](https://coursera.org/share/aa76bc2f825185360a8d9fef2b005aec)</t>
   </si>
   <si>
-    <t>Completed an intensive 11-course program covering key data analytics principles and practical techniques. Developed expertise in data manipulation, analysis, and visualization using tools such as Excel, SQL, Python, Jupyter Notebooks, and Cognos Analytics. Gained hands-on experience with real-world datasets, applying advanced SQL skills, including table creation, joins, subqueries, and Python integration to drive data-driven insights. Demonstrated proficiency in building interactive dashboards, performing comprehensive data analyses, and presenting actionable reports, effectively preparing for an entry-level role in data analytics.</t>
-  </si>
-  <si>
-    <t>Aug. 2024</t>
-  </si>
-  <si>
     <t>Power BI</t>
   </si>
   <si>
@@ -515,48 +485,12 @@
     <t>[Lean Six Sigma Foundations](https://www.linkedin.com/learning/certificates/d1054b624223293c88bec453c012e29f06a0d622209068143b55e498cee9345f?trk=share_certificate)</t>
   </si>
   <si>
-    <t>[Aprende Minitab](https://www.linkedin.com/learning/certificates/8255066557f796dc8ae0cb7e41a69f450b27cb0503f5869951bc07e284372419)</t>
-  </si>
-  <si>
-    <t>Apr. 2025</t>
-  </si>
-  <si>
-    <t>Learned the core functionalities of Minitab, from basic operations to advanced statistical techniques. Applied practical, step-by-step methods to interpret and analyze complex data, maximizing the software’s capabilities for effective data-driven decision-making.</t>
-  </si>
-  <si>
-    <t>Gained a solid foundation in Lean Six Sigma by integrating Lean principles with Six Sigma methodologies to enhance performance and systematically eliminate waste. Explored the DMAIC process, Lean tools (5S, Kanban, poka-yoke, kaizen), and leadership strategies for effective project execution in services and supply chain management.</t>
-  </si>
-  <si>
-    <t>Apr. 2026</t>
-  </si>
-  <si>
-    <t>Learned data analytics techniques for Lean Six Sigma improvement projects using Minitab. Explored the practical use of analytical tools to interpret and analyze project data through real-world examples and applied methodologies that extend beyond traditional improvement projects.</t>
-  </si>
-  <si>
     <t>University of Amsterdam</t>
   </si>
   <si>
     <t>[Data Analytics for Lean Six Sigma](https://coursera.org/share/016c79ba10738fb29a700c96dde17379)</t>
   </si>
   <si>
-    <t>Developed the Dispositivo de Temperatura, Humedad, Iluminación y Sonido de Campaña (DTHIS-C), a portable, autonomous device for monitoring environmental conditions indoors and outdoors. Programmed and calibrated sensors for temperature, humidity, CO2, sound, and illuminance, ensuring data accuracy through certified reference instruments and statistical methods. Integrated data with the IoT platform ThingsBoard for real-time visualization and analysis.</t>
-  </si>
-  <si>
-    <t>Management and migration of large volumes of scientific data between servers using SSH and Jupyter Server, ensuring proper organization, categorization, and accessibility. Development of an informational website on wind energy in Mexico using Quarto and Visual Studio Code, integrating data visualizations, academic publications, and educational resources. [Access the site here](https://main--eolicaierunam.netlify.app/).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired data analysis and visualization expertise using Microsoft Power BI Desktop; connected to diverse data sources, including Excel, relational databases, and web sources like Wikipedia; shaped and transformed data with the integrated Power Query Editor; created and organized interactive visualizations and reports; and learned to publish, share, and manage Power BI assets for streamlined insight dissemination. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired end-to-end data analysis and business intelligence skills using the full Microsoft Power BI suite-service, Desktop, and Mobile; connected to diverse data sources, modeled and transformed data, designed and organized interactive reports, pinned and shared dashboards, employed Q&amp;A natural-language queries, and leveraged desktop data modeling capabilities for actionable insights. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired proficiency in Microsoft Power BI by connecting to single or multiple data sources through a secure,  intuitive interface to transform and interpret data; designing interactive dashboards and reports; collaborating seamlessly within a unified platform. </t>
-  </si>
-  <si>
-    <t>[Aprende Power BI](https://www.linkedin.com/learning/certificates/48485e6403f7f1e38136cb0bd12a35a0b1a23126e17890cbe3fee90dd7205e4b?trk=share_certificate)</t>
-  </si>
-  <si>
     <t>[Power BI Essential Training](https://www.linkedin.com/learning/certificates/35c6e0e304e07bbd77d885270322b07eef57a3a3369d368dbda3a5848e091a70?trk=share_certificate)</t>
   </si>
   <si>
@@ -569,27 +503,42 @@
     <t>IER-UNAM</t>
   </si>
   <si>
-    <t>Temixco, Morelos</t>
-  </si>
-  <si>
     <t>Jul. 2025</t>
   </si>
   <si>
-    <t>Collaborated on the design and development of a web application for solar radiation and meteorological data monitoring and analysis (ESOLMET); gained hands-on experience in Git-based version control, Python data processing, interactive dashboard and web app development with Shiny for Python, and SQL database design and management.</t>
-  </si>
-  <si>
     <t>Linux</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Co-developed ESOLMET, a Python app for solar radiation analysis: defined SQL schemas and cleaned/transformed datetime series meteorological data. Built interactive dashboards and data quality tests for end users, enhancing decision-making across the development team.</t>
+  </si>
+  <si>
+    <t>Designed and built DTHIS-C, an IoT environmental monitoring device by configuring sensors for temperature, humidity, CO₂, illuminance, and sound. Implemented an ETL pipeline in Python and performed statistical validation against certified references to ensure data accuracy. Integrated results into ThingsBoard, creating real-time dashboards that optimized environmental condition monitoring.</t>
+  </si>
+  <si>
+    <t>[Ciencia de datos](https://open.spotify.com/episode/7zB8bpKg0ahowINRJ3JqLx?si=FdSdfznsR-eNBhCIy1793g)</t>
+  </si>
+  <si>
     <t>Renewable energy engineer with experience in ETL flow development. I have a solid background in quality management and continuous improvement, enabling me to optimize processes and ensure data integrity.
-I specialize in data analysis (Python, SQL, Power BI) to transform information into actionable insights and in creating interactive platforms that facilitate decision-making and knowledge sharing. My attention to detail, analytical skills, and collaborative approach drive me to contribute innovative solutions and foster a positive and efficient work environment.</t>
+I specialize in data analysis (Python, SQL, Power BI) to transform information into actionable insights and in creating interactive platforms that facilitate decision-making and knowledge sharing.</t>
+  </si>
+  <si>
+    <t>Teamwork</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +568,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -641,7 +598,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -663,6 +620,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1011,7 +972,7 @@
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C2" t="s">
         <v>104</v>
@@ -1040,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1015,7 @@
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1067,64 +1028,52 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="8"/>
-      <c r="E8" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2:I2" r:id="rId1" display="https://blenback.github.io/presentations/2021_06_09_ESP/" xr:uid="{91963DD6-E5D6-4B0A-B27F-4049C782886D}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{1DB59245-DD27-4016-9AEC-A86DE50FCCF8}"/>
+    <hyperlink ref="E2:H2" r:id="rId1" display="https://blenback.github.io/presentations/2021_06_09_ESP/" xr:uid="{91963DD6-E5D6-4B0A-B27F-4049C782886D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1539,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1564,7 +1513,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1572,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1718,7 +1667,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1742,7 +1691,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1750,7 +1699,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1758,7 +1707,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1766,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1776,10 +1725,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8159E0C-6DBB-4A10-B27C-0E422FDDF1F4}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1794,22 +1743,27 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>150</v>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1858,36 +1812,36 @@
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" t="s">
         <v>124</v>
-      </c>
-      <c r="D2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1899,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1933,44 +1887,44 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>135</v>
+      <c r="E3" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +1936,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E050452-1706-404D-B355-6C16037B2027}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2018,26 +1972,6 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2046,20 +1980,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25220DED-3F04-4958-9AA1-836403C9FDD5}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="3" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="57.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>113</v>
       </c>
@@ -2067,177 +2000,75 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="B6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>164</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrha\curriculum-vitae\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4D8078-FB55-4A27-A71A-1394C4226E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C8F714-F343-4F9C-8F06-54CB1D069E99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="161">
   <si>
     <t>position</t>
   </si>
@@ -532,6 +532,9 @@
   </si>
   <si>
     <t>Teamwork</t>
+  </si>
+  <si>
+    <t>https://jramonha.github.io/</t>
   </si>
 </sst>
 </file>
@@ -908,8 +911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +922,7 @@
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
@@ -983,7 +986,9 @@
       <c r="E2">
         <v>7777162890</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="H2" t="s">
         <v>108</v>
       </c>
@@ -994,6 +999,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E61BAC2C-CE77-4EEF-95D1-2C82C8721EA2}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{C5485805-720C-4B4D-9536-AB70D7B23B62}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1488,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
